--- a/Doc/Previsionnel.xlsx
+++ b/Doc/Previsionnel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Suspen'Dons\Suspendons\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Revenus</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Communication</t>
-  </si>
-  <si>
-    <t>Réseaux Sociaux</t>
   </si>
   <si>
     <t>Papiers</t>
@@ -184,12 +181,42 @@
   <si>
     <t>Budget Prévisionnel à un an (Juin 2018)</t>
   </si>
+  <si>
+    <t>Don en ligne</t>
+  </si>
+  <si>
+    <t>Pack 2€</t>
+  </si>
+  <si>
+    <t>Pack 3€</t>
+  </si>
+  <si>
+    <t>Pack 5€</t>
+  </si>
+  <si>
+    <t>Pack 10€</t>
+  </si>
+  <si>
+    <t>Parrainage</t>
+  </si>
+  <si>
+    <t>Luc Arbogast</t>
+  </si>
+  <si>
+    <t>LinksTheSun</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Total a 1 an :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +279,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +319,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="86">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -1315,6 +1362,68 @@
       <top/>
       <bottom style="medium">
         <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,12 +1431,244 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1348,6 +1689,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1357,327 +1749,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1992,1065 +2178,1189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V33"/>
+  <dimension ref="B1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:Q23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="15" width="11.42578125" customWidth="1"/>
+    <col min="18" max="20" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="119"/>
-    </row>
-    <row r="3" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="120"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="121"/>
-    </row>
-    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="120"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="121"/>
-    </row>
-    <row r="5" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="120"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="121"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="120"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="121"/>
-    </row>
-    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="120"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="121"/>
-    </row>
-    <row r="8" spans="2:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="120"/>
-      <c r="C8" s="15" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="146"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="140"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="143"/>
+    </row>
+    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="140"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="143"/>
+    </row>
+    <row r="5" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="140"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="143"/>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="140"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="143"/>
+    </row>
+    <row r="7" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="140"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="143"/>
+    </row>
+    <row r="8" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="140"/>
+      <c r="C8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="52" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="90"/>
+      <c r="H8" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52" t="s">
+      <c r="I8" s="90"/>
+      <c r="J8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="9" t="s">
+      <c r="K8" s="90"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="15" t="s">
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15" t="s">
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15" t="s">
+      <c r="S8" s="58"/>
+      <c r="T8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="121"/>
-    </row>
-    <row r="9" spans="2:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="46" t="s">
+      <c r="U8" s="58"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="147"/>
+    </row>
+    <row r="9" spans="2:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="140"/>
+      <c r="C9" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="64" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="102" t="s">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="147"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="140"/>
+      <c r="C10" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="22">
+        <v>5</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34">
+        <v>10</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34">
+        <v>50</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="46">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47">
+        <v>1</v>
+      </c>
+      <c r="S10" s="48"/>
+      <c r="T10" s="49">
+        <v>44</v>
+      </c>
+      <c r="U10" s="50"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="147"/>
+    </row>
+    <row r="11" spans="2:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="140"/>
+      <c r="C11" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="121"/>
-    </row>
-    <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="120"/>
-      <c r="C10" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="24">
-        <v>5</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <v>10</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16">
-        <v>50</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="66">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67">
-        <v>1</v>
-      </c>
-      <c r="S10" s="111"/>
-      <c r="T10" s="114">
-        <v>44</v>
-      </c>
-      <c r="U10" s="68"/>
-      <c r="V10" s="121"/>
-    </row>
-    <row r="11" spans="2:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="120"/>
-      <c r="C11" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="121"/>
-    </row>
-    <row r="12" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="120"/>
-      <c r="C12" s="14" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="147"/>
+    </row>
+    <row r="12" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="140"/>
+      <c r="C12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="24">
+      <c r="D12" s="32"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="22">
         <v>182000</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34">
         <v>0.08</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16">
+      <c r="I12" s="34"/>
+      <c r="J12" s="34">
         <f>F12*H12</f>
         <v>14560</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="121"/>
-    </row>
-    <row r="13" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="120"/>
-      <c r="C13" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="79">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16">
+      <c r="K12" s="36"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="147"/>
+    </row>
+    <row r="13" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="140"/>
+      <c r="C13" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="122"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="121">
+        <v>1000</v>
+      </c>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="125">
         <v>1</v>
       </c>
-      <c r="S13" s="91"/>
-      <c r="T13" s="113">
-        <v>70</v>
-      </c>
-      <c r="U13" s="18"/>
-      <c r="V13" s="121"/>
-    </row>
-    <row r="14" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="120"/>
-      <c r="C14" s="62" t="s">
+      <c r="S13" s="122"/>
+      <c r="T13" s="126">
+        <v>1000</v>
+      </c>
+      <c r="U13" s="123"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="147"/>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="140"/>
+      <c r="C14" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="21">
+        <v>2</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23">
+        <v>100</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23">
+        <f>F14*H14</f>
+        <v>200</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="122"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="121">
+        <v>1000</v>
+      </c>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="125">
+        <v>1</v>
+      </c>
+      <c r="S14" s="122"/>
+      <c r="T14" s="126">
+        <v>1000</v>
+      </c>
+      <c r="U14" s="123"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="147"/>
+    </row>
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="140"/>
+      <c r="C15" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="21">
+        <v>3</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23">
+        <v>50</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23">
+        <f t="shared" ref="J15:J17" si="0">F15*H15</f>
+        <v>150</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="147"/>
+    </row>
+    <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="140"/>
+      <c r="C16" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="21">
+        <v>5</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="23">
         <v>20</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="79">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16">
-        <v>1</v>
-      </c>
-      <c r="S14" s="91"/>
-      <c r="T14" s="113">
-        <v>70</v>
-      </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="121"/>
-    </row>
-    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="120"/>
-      <c r="C15" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="28">
-        <v>30000</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16">
-        <v>30000</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="121"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="120"/>
-      <c r="C16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="24">
-        <v>500</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16">
-        <v>500</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="22">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="91">
-        <v>1</v>
-      </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="109">
-        <v>115</v>
-      </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="121"/>
-    </row>
-    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="120"/>
-      <c r="C17" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="22">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="91">
-        <v>1</v>
-      </c>
-      <c r="S17" s="23"/>
-      <c r="T17" s="109">
-        <v>38</v>
-      </c>
-      <c r="U17" s="33"/>
-      <c r="V17" s="121"/>
-    </row>
-    <row r="18" spans="2:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="27">
-        <v>500</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19">
-        <v>500</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="121"/>
-    </row>
-    <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="120"/>
-      <c r="C19" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38" t="str">
-        <f>"Total : "&amp;SUM(J10,J12,J15,J16,J18)&amp;"€"</f>
-        <v>Total : 45610€</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="91">
-        <v>1</v>
-      </c>
-      <c r="S19" s="23"/>
-      <c r="T19" s="109">
-        <v>50</v>
-      </c>
-      <c r="U19" s="33"/>
-      <c r="V19" s="121"/>
-    </row>
-    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="85">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="106">
-        <v>1</v>
-      </c>
-      <c r="S20" s="75"/>
-      <c r="T20" s="112">
-        <v>40</v>
-      </c>
-      <c r="U20" s="86"/>
-      <c r="V20" s="121"/>
-    </row>
-    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="120"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="121"/>
-    </row>
-    <row r="22" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="120"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="121"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="120"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="22">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="91">
-        <v>1</v>
-      </c>
-      <c r="S23" s="23"/>
-      <c r="T23" s="109">
-        <v>7</v>
-      </c>
-      <c r="U23" s="33"/>
-      <c r="V23" s="121"/>
-    </row>
-    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="22">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="91">
-        <v>1</v>
-      </c>
-      <c r="S24" s="23"/>
-      <c r="T24" s="109">
-        <v>20</v>
-      </c>
-      <c r="U24" s="33"/>
-      <c r="V24" s="121"/>
-    </row>
-    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="121"/>
-    </row>
-    <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="120"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="22">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="91">
-        <v>1</v>
-      </c>
-      <c r="S26" s="23"/>
-      <c r="T26" s="109">
-        <v>25</v>
-      </c>
-      <c r="U26" s="33"/>
-      <c r="V26" s="121"/>
-    </row>
-    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="120"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="121"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="120"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="22">
-        <v>3000</v>
-      </c>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="91">
-        <v>3</v>
-      </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="89">
-        <f>P28*R28</f>
-        <v>9000</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="121"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="120"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="22">
-        <v>1000</v>
-      </c>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="91">
-        <v>2</v>
-      </c>
-      <c r="S29" s="23"/>
-      <c r="T29" s="109">
-        <f t="shared" ref="T29:T31" si="0">P29*R29</f>
-        <v>2000</v>
-      </c>
-      <c r="U29" s="33"/>
-      <c r="V29" s="121"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="120"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="22">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="91">
-        <v>5</v>
-      </c>
-      <c r="S30" s="23"/>
-      <c r="T30" s="109">
+      <c r="I16" s="22"/>
+      <c r="J16" s="23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="U30" s="33"/>
-      <c r="V30" s="121"/>
-    </row>
-    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="120"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="1" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="33">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34">
+        <v>1</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="35">
+        <v>70</v>
+      </c>
+      <c r="U16" s="36"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="147"/>
+    </row>
+    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="140"/>
+      <c r="C17" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="21">
+        <v>10</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="23">
+        <v>15</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="33">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34">
+        <v>1</v>
+      </c>
+      <c r="S17" s="23"/>
+      <c r="T17" s="35">
+        <v>70</v>
+      </c>
+      <c r="U17" s="36"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="147"/>
+    </row>
+    <row r="18" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="140"/>
+      <c r="C18" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="147"/>
+    </row>
+    <row r="19" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="140"/>
+      <c r="C19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="21">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23">
+        <v>1</v>
+      </c>
+      <c r="S19" s="24"/>
+      <c r="T19" s="25">
+        <v>115</v>
+      </c>
+      <c r="U19" s="26"/>
+      <c r="V19" s="143"/>
+      <c r="W19" s="147"/>
+    </row>
+    <row r="20" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="140"/>
+      <c r="C20" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="68">
+        <v>30000</v>
+      </c>
+      <c r="G20" s="69"/>
+      <c r="H20" s="34">
+        <v>1</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34">
+        <v>30000</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="78">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="21">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23">
+        <v>1</v>
+      </c>
+      <c r="S20" s="24"/>
+      <c r="T20" s="25">
+        <v>38</v>
+      </c>
+      <c r="U20" s="26"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="147"/>
+    </row>
+    <row r="21" spans="2:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="140"/>
+      <c r="C21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="22">
+        <v>500</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34">
+        <v>1</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34">
+        <v>500</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="147"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="140"/>
+      <c r="C22" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="21">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23">
+        <v>1</v>
+      </c>
+      <c r="S22" s="24"/>
+      <c r="T22" s="25">
+        <v>50</v>
+      </c>
+      <c r="U22" s="26"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="147"/>
+    </row>
+    <row r="23" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="140"/>
+      <c r="C23" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="70">
+        <v>500</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51">
+        <v>1</v>
+      </c>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51">
+        <v>500</v>
+      </c>
+      <c r="K23" s="63"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="64">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="66">
+        <v>1</v>
+      </c>
+      <c r="S23" s="67"/>
+      <c r="T23" s="29">
+        <v>40</v>
+      </c>
+      <c r="U23" s="30"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="147"/>
+    </row>
+    <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="140"/>
+      <c r="C24" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="55" t="str">
+        <f>"Total : "&amp;(SUM(J10,J12,J14:K17,J20,J21,J23))&amp;"€"</f>
+        <v>Total : 46210€</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="143"/>
+      <c r="W24" s="147"/>
+    </row>
+    <row r="25" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="140"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="143"/>
+      <c r="W25" s="147"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="140"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23">
+        <v>1</v>
+      </c>
+      <c r="S26" s="24"/>
+      <c r="T26" s="25">
+        <v>7</v>
+      </c>
+      <c r="U26" s="26"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="147"/>
+    </row>
+    <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="140"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="101"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23">
+        <v>1</v>
+      </c>
+      <c r="S27" s="24"/>
+      <c r="T27" s="25">
+        <v>20</v>
+      </c>
+      <c r="U27" s="26"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="147"/>
+    </row>
+    <row r="28" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="140"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="143"/>
+      <c r="W28" s="147"/>
+    </row>
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="140"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="21">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23">
+        <v>1</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="25">
+        <v>25</v>
+      </c>
+      <c r="U29" s="26"/>
+      <c r="V29" s="143"/>
+      <c r="W29" s="147"/>
+    </row>
+    <row r="30" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="140"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="143"/>
+      <c r="W30" s="147"/>
+    </row>
+    <row r="31" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="140"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="136" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="137"/>
+      <c r="F31" s="130" t="str">
+        <f>(SUM(J10,J12,J14:K17,J20,J21,J23))-(SUM(T10,T13,T14,T16,T17,T19,T20,T22,T23,T26,T27,T29,T31,T32,T33,T34))&amp;"€"</f>
+        <v>32431€</v>
+      </c>
+      <c r="G31" s="131"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="99"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="21">
+        <v>3000</v>
+      </c>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23">
+        <v>3</v>
+      </c>
+      <c r="S31" s="24"/>
+      <c r="T31" s="27">
+        <f>P31*R31</f>
+        <v>9000</v>
+      </c>
+      <c r="U31" s="28"/>
+      <c r="V31" s="143"/>
+      <c r="W31" s="147"/>
+    </row>
+    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="140"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="21">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="23">
+        <v>2</v>
+      </c>
+      <c r="S32" s="24"/>
+      <c r="T32" s="25">
+        <f t="shared" ref="T32:T34" si="1">P32*R32</f>
+        <v>2000</v>
+      </c>
+      <c r="U32" s="26"/>
+      <c r="V32" s="143"/>
+      <c r="W32" s="147"/>
+    </row>
+    <row r="33" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="140"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="24"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="23">
+        <v>5</v>
+      </c>
+      <c r="S33" s="24"/>
+      <c r="T33" s="25">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="94">
+      <c r="U33" s="26"/>
+      <c r="V33" s="143"/>
+      <c r="W33" s="147"/>
+    </row>
+    <row r="34" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="140"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="9"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="8">
         <v>2</v>
       </c>
-      <c r="S31" s="71"/>
-      <c r="T31" s="110">
-        <f t="shared" si="0"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="10">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="U31" s="72"/>
-      <c r="V31" s="121"/>
-    </row>
-    <row r="32" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="120"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="115" t="str">
-        <f>"Total : "&amp;SUM(T10,T13,T14,T16,T17,T19,T20,T23,T24,T26,T28,T29,T30,T31)&amp;"€"</f>
-        <v>Total : 11779€</v>
-      </c>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="115"/>
-      <c r="S32" s="115"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="121"/>
-    </row>
-    <row r="33" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="124"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="143"/>
+      <c r="W34" s="147"/>
+    </row>
+    <row r="35" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="140"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4" t="str">
+        <f>"Total : "&amp;SUM(T10,T13,T14,T16,T17,T19,T20,T22,T23,T26,T27,T29,T31,T32,T33,T34)&amp;"€"</f>
+        <v>Total : 13779€</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="143"/>
+      <c r="W35" s="147"/>
+    </row>
+    <row r="36" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="140"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
+      <c r="Q36" s="147"/>
+      <c r="R36" s="147"/>
+      <c r="S36" s="147"/>
+      <c r="T36" s="147"/>
+      <c r="U36" s="147"/>
+      <c r="V36" s="143"/>
+      <c r="W36" s="147"/>
+    </row>
+    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="149"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="148"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="148"/>
+      <c r="R37" s="148"/>
+      <c r="S37" s="148"/>
+      <c r="T37" s="148"/>
+      <c r="U37" s="148"/>
+      <c r="V37" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:U32"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="P22:U22"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="P21:U21"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F17:K17"/>
+  <mergeCells count="154">
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:H32"/>
+    <mergeCell ref="E5:I6"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="J3:N4"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="O5:S6"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F8:G8"/>
@@ -3058,31 +3368,128 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M20:O20"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
     <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M18:O18"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F22:K22"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="P28:U28"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="P24:U24"/>
+    <mergeCell ref="P30:U30"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
